--- a/experiment/output/results/VLCS/CORAL/DG/1.xlsx
+++ b/experiment/output/results/VLCS/CORAL/DG/1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,17 +488,23 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>250206_17-49-11_resnet50_GENIE</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
+          <t>250207_22-51-48_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>68.14100000000001</v>
+      </c>
+      <c r="E2" t="n">
+        <v>68.518</v>
+      </c>
+      <c r="F2" t="n">
+        <v>58.353</v>
+      </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3">
@@ -514,55 +520,23 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>250127_09-24-15_resnet50_EVE</t>
+          <t>250211_04-50-06_resnet50_GENIE</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>70.35299999999999</v>
+        <v>69.035</v>
       </c>
       <c r="E3" t="n">
-        <v>67.953</v>
+        <v>69.318</v>
       </c>
       <c r="F3" t="n">
-        <v>62.212</v>
+        <v>66.91800000000001</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>CORAL</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>250206_16-12-13_resnet50_GENIE</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>66.871</v>
-      </c>
-      <c r="E4" t="n">
-        <v>67.059</v>
-      </c>
-      <c r="F4" t="n">
-        <v>63.906</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/experiment/output/results/VLCS/CORAL/DG/1.xlsx
+++ b/experiment/output/results/VLCS/CORAL/DG/1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,54 +488,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>250207_22-51-48_resnet50_GENIE</t>
+          <t>250211_04-50-06_resnet50_GENIE</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>68.14100000000001</v>
+        <v>69.035</v>
       </c>
       <c r="E2" t="n">
-        <v>68.518</v>
+        <v>69.318</v>
       </c>
       <c r="F2" t="n">
-        <v>58.353</v>
+        <v>66.91800000000001</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>CORAL</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>250211_04-50-06_resnet50_GENIE</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>69.035</v>
-      </c>
-      <c r="E3" t="n">
-        <v>69.318</v>
-      </c>
-      <c r="F3" t="n">
-        <v>66.91800000000001</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" t="n">
         <v>4</v>
       </c>
     </row>
